--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2737307.776280103</v>
+        <v>2734436.439553423</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13.35464426286299</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.478598521151552</v>
       </c>
       <c r="I2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,73 +735,73 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="T3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>13.35464426286299</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -826,64 +826,64 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="K4" t="n">
-        <v>14.93225064571201</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>13.58434214447045</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13.35464426286299</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,70 +972,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>13.35464426286299</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="V6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="F6" t="n">
+      <c r="W6" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.58434214447045</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>27.50184046889722</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="F8" t="n">
-        <v>34.37788621061036</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.6114292076474</v>
+        <v>13.61142920764741</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>104.0154267588402</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.62747247092862</v>
+        <v>43.62747247092922</v>
       </c>
       <c r="S8" t="n">
-        <v>104.0154267588402</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>104.0154267588402</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="C9" t="n">
-        <v>91.61678788918643</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>104.0154267588402</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>104.0154267588402</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>104.0154267588402</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>91.61678788918528</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>68.98239880211099</v>
       </c>
       <c r="C10" t="n">
-        <v>104.0154267588402</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>104.0154267588402</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>104.0154267588402</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>91.61678788918641</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.63438908707428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>80.33989744908958</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>31.26260713376563</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>213.9987150475861</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880071</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>98.72106119200248</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>44.7513807668926</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>217.6587144826188</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>39.96816871822014</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>175.3193898991449</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="C2" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="D2" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="E2" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8431549272754</v>
+        <v>23.07209431498457</v>
       </c>
       <c r="G2" t="n">
-        <v>16.52805540473048</v>
+        <v>7.756994792439651</v>
       </c>
       <c r="H2" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I2" t="n">
         <v>1.212955882185558</v>
@@ -4331,19 +4331,19 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K2" t="n">
-        <v>1.212955882185558</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="L2" t="n">
-        <v>1.212955882185558</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="M2" t="n">
-        <v>15.61680698313905</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N2" t="n">
-        <v>30.62713602518533</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O2" t="n">
-        <v>45.6374650672316</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P2" t="n">
         <v>60.64779410927788</v>
@@ -4364,16 +4364,16 @@
         <v>45.33269458673296</v>
       </c>
       <c r="V2" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W2" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="X2" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I3" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="J3" t="n">
-        <v>1.212955882185558</v>
+        <v>7.519576199182468</v>
       </c>
       <c r="K3" t="n">
-        <v>1.212955882185558</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="L3" t="n">
-        <v>1.212955882185558</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="M3" t="n">
-        <v>15.61680698313905</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="N3" t="n">
-        <v>30.62713602518533</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O3" t="n">
-        <v>45.6374650672316</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P3" t="n">
-        <v>45.6374650672316</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="Q3" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="R3" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="S3" t="n">
         <v>45.33269458673296</v>
       </c>
-      <c r="S3" t="n">
-        <v>31.8431549272754</v>
-      </c>
       <c r="T3" t="n">
-        <v>31.8431549272754</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="U3" t="n">
-        <v>31.8431549272754</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="V3" t="n">
-        <v>31.8431549272754</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="W3" t="n">
-        <v>31.8431549272754</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="X3" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="Y3" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.92623638759056</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C4" t="n">
-        <v>46.92623638759056</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D4" t="n">
-        <v>46.92623638759056</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E4" t="n">
-        <v>46.92623638759056</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F4" t="n">
-        <v>31.61113686504564</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G4" t="n">
-        <v>31.61113686504564</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H4" t="n">
-        <v>31.61113686504564</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I4" t="n">
-        <v>31.61113686504564</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="J4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K4" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="L4" t="n">
-        <v>16.22328492423183</v>
+        <v>10.74933455546547</v>
       </c>
       <c r="M4" t="n">
-        <v>31.23361396627811</v>
+        <v>25.75966359751175</v>
       </c>
       <c r="N4" t="n">
         <v>40.76999263955803</v>
@@ -4507,31 +4507,31 @@
         <v>60.64779410927788</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.92623638759056</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="R4" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S4" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T4" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U4" t="n">
-        <v>46.92623638759056</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="V4" t="n">
-        <v>46.92623638759056</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W4" t="n">
-        <v>46.92623638759056</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="X4" t="n">
-        <v>46.92623638759056</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.92623638759056</v>
+        <v>1.212955882185558</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="C5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="D5" t="n">
-        <v>30.01759506418804</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="E5" t="n">
-        <v>30.01759506418804</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="F5" t="n">
         <v>16.52805540473048</v>
@@ -4571,19 +4571,19 @@
         <v>1.212955882185558</v>
       </c>
       <c r="L5" t="n">
-        <v>1.212955882185558</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M5" t="n">
-        <v>15.61680698313905</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N5" t="n">
-        <v>30.62713602518533</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="O5" t="n">
-        <v>45.6374650672316</v>
+        <v>46.24394300832439</v>
       </c>
       <c r="P5" t="n">
-        <v>60.64779410927788</v>
+        <v>55.48699579178731</v>
       </c>
       <c r="Q5" t="n">
         <v>60.64779410927788</v>
@@ -4598,19 +4598,19 @@
         <v>45.33269458673296</v>
       </c>
       <c r="U5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="V5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="W5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="X5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="Y5" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E6" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F6" t="n">
         <v>1.212955882185558</v>
@@ -4644,22 +4644,22 @@
         <v>1.212955882185558</v>
       </c>
       <c r="J6" t="n">
-        <v>1.212955882185558</v>
+        <v>7.519576199182469</v>
       </c>
       <c r="K6" t="n">
-        <v>16.22328492423183</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="L6" t="n">
-        <v>16.22328492423183</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="M6" t="n">
-        <v>16.22328492423183</v>
+        <v>37.54023428327503</v>
       </c>
       <c r="N6" t="n">
-        <v>16.22328492423183</v>
+        <v>37.54023428327503</v>
       </c>
       <c r="O6" t="n">
-        <v>30.62713602518533</v>
+        <v>37.54023428327503</v>
       </c>
       <c r="P6" t="n">
         <v>45.6374650672316</v>
@@ -4668,28 +4668,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="S6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="T6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="U6" t="n">
-        <v>45.33269458673296</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="V6" t="n">
-        <v>45.33269458673296</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="W6" t="n">
-        <v>45.33269458673296</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="X6" t="n">
-        <v>45.33269458673296</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="Y6" t="n">
-        <v>45.33269458673296</v>
+        <v>16.52805540473048</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D7" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="J7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K7" t="n">
         <v>1.212955882185558</v>
@@ -4735,7 +4735,7 @@
         <v>31.23361396627811</v>
       </c>
       <c r="N7" t="n">
-        <v>40.76999263955803</v>
+        <v>46.24394300832439</v>
       </c>
       <c r="O7" t="n">
         <v>55.7803216816043</v>
@@ -4759,16 +4759,16 @@
         <v>45.33269458673296</v>
       </c>
       <c r="V7" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W7" t="n">
-        <v>45.33269458673296</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="X7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>161.8613777539375</v>
+        <v>161.8613777539343</v>
       </c>
       <c r="C8" t="n">
-        <v>161.8613777539375</v>
+        <v>134.0817409166644</v>
       </c>
       <c r="D8" t="n">
-        <v>161.8613777539375</v>
+        <v>134.0817409166644</v>
       </c>
       <c r="E8" t="n">
-        <v>161.8613777539375</v>
+        <v>29.01565328147363</v>
       </c>
       <c r="F8" t="n">
-        <v>127.1362401674624</v>
+        <v>22.07015253227015</v>
       </c>
       <c r="G8" t="n">
-        <v>113.3873217758994</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="H8" t="n">
-        <v>113.3873217758994</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="I8" t="n">
-        <v>8.321234140707217</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="J8" t="n">
-        <v>111.296506631959</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="K8" t="n">
-        <v>181.4453714793751</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="L8" t="n">
-        <v>212.2687450356064</v>
+        <v>109.2934725443568</v>
       </c>
       <c r="M8" t="n">
-        <v>278.2351245892756</v>
+        <v>175.2598520980245</v>
       </c>
       <c r="N8" t="n">
-        <v>349.8827175086827</v>
+        <v>246.9074450174299</v>
       </c>
       <c r="O8" t="n">
-        <v>404.2022465684905</v>
+        <v>301.226974077236</v>
       </c>
       <c r="P8" t="n">
-        <v>416.0617070353609</v>
+        <v>313.086434544105</v>
       </c>
       <c r="Q8" t="n">
-        <v>416.0617070353609</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="R8" t="n">
-        <v>371.9935530243218</v>
+        <v>371.9935530243159</v>
       </c>
       <c r="S8" t="n">
-        <v>266.9274653891297</v>
+        <v>266.9274653891251</v>
       </c>
       <c r="T8" t="n">
-        <v>266.9274653891297</v>
+        <v>266.9274653891251</v>
       </c>
       <c r="U8" t="n">
-        <v>266.9274653891297</v>
+        <v>266.9274653891251</v>
       </c>
       <c r="V8" t="n">
-        <v>266.9274653891297</v>
+        <v>266.9274653891251</v>
       </c>
       <c r="W8" t="n">
-        <v>266.9274653891297</v>
+        <v>266.9274653891251</v>
       </c>
       <c r="X8" t="n">
-        <v>161.8613777539375</v>
+        <v>266.9274653891251</v>
       </c>
       <c r="Y8" t="n">
-        <v>161.8613777539375</v>
+        <v>266.9274653891251</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>416.0617070353609</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="C9" t="n">
-        <v>323.5194970462837</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="D9" t="n">
-        <v>218.4534094110915</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="E9" t="n">
-        <v>113.3873217758994</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="F9" t="n">
-        <v>8.321234140707217</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="G9" t="n">
-        <v>8.321234140707217</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="H9" t="n">
-        <v>8.321234140707217</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="I9" t="n">
-        <v>8.321234140707217</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="J9" t="n">
-        <v>8.321234140707217</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="K9" t="n">
-        <v>28.03781688134535</v>
+        <v>16.52325184929616</v>
       </c>
       <c r="L9" t="n">
-        <v>85.3889830375519</v>
+        <v>116.3817942504397</v>
       </c>
       <c r="M9" t="n">
-        <v>171.6719570343628</v>
+        <v>202.6647682472494</v>
       </c>
       <c r="N9" t="n">
-        <v>274.6472295256146</v>
+        <v>305.6400407384999</v>
       </c>
       <c r="O9" t="n">
-        <v>377.6225020168665</v>
+        <v>377.6225020168621</v>
       </c>
       <c r="P9" t="n">
-        <v>416.0617070353609</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="Q9" t="n">
-        <v>416.0617070353609</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="R9" t="n">
-        <v>416.0617070353609</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="S9" t="n">
-        <v>416.0617070353609</v>
+        <v>310.9956194001647</v>
       </c>
       <c r="T9" t="n">
-        <v>416.0617070353609</v>
+        <v>310.9956194001647</v>
       </c>
       <c r="U9" t="n">
-        <v>416.0617070353609</v>
+        <v>205.9295317649739</v>
       </c>
       <c r="V9" t="n">
-        <v>416.0617070353609</v>
+        <v>205.9295317649739</v>
       </c>
       <c r="W9" t="n">
-        <v>416.0617070353609</v>
+        <v>113.3873217758979</v>
       </c>
       <c r="X9" t="n">
-        <v>416.0617070353609</v>
+        <v>113.3873217758979</v>
       </c>
       <c r="Y9" t="n">
-        <v>416.0617070353609</v>
+        <v>113.3873217758979</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>416.0617070353609</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="C10" t="n">
-        <v>310.9956194001687</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="D10" t="n">
-        <v>205.9295317649766</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="E10" t="n">
-        <v>100.8634441297844</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="F10" t="n">
-        <v>8.321234140707217</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="G10" t="n">
-        <v>8.321234140707217</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="H10" t="n">
-        <v>8.321234140707217</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="I10" t="n">
-        <v>8.321234140707217</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="J10" t="n">
-        <v>8.321234140707217</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="K10" t="n">
-        <v>73.53581884437521</v>
+        <v>73.5358188443746</v>
       </c>
       <c r="L10" t="n">
-        <v>176.511091335627</v>
+        <v>176.5110913356251</v>
       </c>
       <c r="M10" t="n">
-        <v>224.9414260552269</v>
+        <v>224.9414260552234</v>
       </c>
       <c r="N10" t="n">
-        <v>224.9414260552269</v>
+        <v>224.9414260552234</v>
       </c>
       <c r="O10" t="n">
-        <v>327.9166985464787</v>
+        <v>327.9166985464739</v>
       </c>
       <c r="P10" t="n">
-        <v>416.0617070353609</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="Q10" t="n">
-        <v>416.0617070353609</v>
+        <v>393.1986877554825</v>
       </c>
       <c r="R10" t="n">
-        <v>416.0617070353609</v>
+        <v>393.1986877554825</v>
       </c>
       <c r="S10" t="n">
-        <v>416.0617070353609</v>
+        <v>288.1326001202917</v>
       </c>
       <c r="T10" t="n">
-        <v>416.0617070353609</v>
+        <v>183.0665124851009</v>
       </c>
       <c r="U10" t="n">
-        <v>416.0617070353609</v>
+        <v>78.00042484991013</v>
       </c>
       <c r="V10" t="n">
-        <v>416.0617070353609</v>
+        <v>78.00042484991013</v>
       </c>
       <c r="W10" t="n">
-        <v>416.0617070353609</v>
+        <v>78.00042484991013</v>
       </c>
       <c r="X10" t="n">
-        <v>416.0617070353609</v>
+        <v>78.00042484991013</v>
       </c>
       <c r="Y10" t="n">
-        <v>416.0617070353609</v>
+        <v>78.00042484991013</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556308</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>483.8760050556308</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>483.8760050556308</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>316.6799057705107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9680746127088</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,58 +5741,58 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6014,7 +6014,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,16 +6130,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6610,7 +6610,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6686,49 +6686,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466574</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>718.5507239167111</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888043</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2401.759668664207</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>900.1991887469509</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,28 +6950,28 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,25 +7187,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
         <v>484.8112968429803</v>
@@ -7321,13 +7321,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7415,43 +7415,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8536007400712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>366.9636532421608</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>199.7675539570408</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>217.342912363454</v>
       </c>
       <c r="L2" t="n">
-        <v>213.5488567752802</v>
+        <v>228.7108053025997</v>
       </c>
       <c r="M2" t="n">
-        <v>220.1742634169181</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>219.453681055507</v>
+        <v>218.8410770746053</v>
       </c>
       <c r="O2" t="n">
         <v>221.538799378194</v>
       </c>
       <c r="P2" t="n">
-        <v>226.149311848474</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q2" t="n">
         <v>207.1020630664799</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>133.8565188748957</v>
       </c>
       <c r="L3" t="n">
         <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>137.5967913765127</v>
+        <v>138.2093953574145</v>
       </c>
       <c r="N3" t="n">
         <v>126.9119083523187</v>
@@ -8076,7 +8076,7 @@
         <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>145.5280738211766</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,13 +8140,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>140.6574822216631</v>
+        <v>135.1282394249294</v>
       </c>
       <c r="M4" t="n">
         <v>144.1881980719757</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6541045944249</v>
+        <v>133.1833473911586</v>
       </c>
       <c r="O4" t="n">
         <v>144.6920843289826</v>
@@ -8219,22 +8219,22 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>228.7108053025997</v>
       </c>
       <c r="M5" t="n">
-        <v>220.1742634169181</v>
+        <v>220.7868673978199</v>
       </c>
       <c r="N5" t="n">
-        <v>219.453681055507</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
         <v>221.538799378194</v>
       </c>
       <c r="P5" t="n">
-        <v>226.149311848474</v>
+        <v>220.3237802741473</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>140.8394464083196</v>
@@ -8301,16 +8301,16 @@
         <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>138.2093953574145</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>139.2229632339716</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>134.7518686851471</v>
+        <v>127.7689411517231</v>
       </c>
       <c r="Q6" t="n">
         <v>145.5280738211766</v>
@@ -8383,10 +8383,10 @@
         <v>144.1881980719757</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6541045944249</v>
+        <v>133.1833473911586</v>
       </c>
       <c r="O7" t="n">
-        <v>144.6920843289826</v>
+        <v>139.1628415322489</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>141.5136528228966</v>
+        <v>37.49822606405721</v>
       </c>
       <c r="K8" t="n">
-        <v>75.80653116621265</v>
+        <v>4.949091926399689</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>70.85743923981813</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.66341988424261</v>
+        <v>143.6788466430826</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>41.3416127743707</v>
+        <v>41.34161277437119</v>
       </c>
       <c r="K9" t="n">
-        <v>11.63087376974573</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>42.93674368175569</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>31.30586991200849</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.46828871759003</v>
+        <v>24.4682887175907</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.1076531206123</v>
+        <v>126.1076531206116</v>
       </c>
       <c r="M10" t="n">
-        <v>68.92149019576564</v>
+        <v>68.92149019576472</v>
       </c>
       <c r="N10" t="n">
-        <v>11.58946341506959</v>
+        <v>11.58946341507024</v>
       </c>
       <c r="O10" t="n">
-        <v>135.2384436656261</v>
+        <v>135.2384436656254</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664503</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9259388694759565</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.1584408891656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>38.1389282762419</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>47.71290145456669</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>136.274905234752</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>31.13893193492464</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,10 +25877,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>35.40333084624568</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>775401.41223708</v>
+        <v>775401.4122370803</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584156</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="O2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>357912.3110366693</v>
+        <v>357912.3110366669</v>
       </c>
       <c r="E3" t="n">
-        <v>1080121.758724493</v>
+        <v>1080121.758724496</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3967.032860481986</v>
+        <v>3967.032860481976</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22488.01565909388</v>
+        <v>22488.01565909348</v>
       </c>
       <c r="M3" t="n">
-        <v>266322.5358175747</v>
+        <v>266322.5358175752</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>405703.6705393202</v>
       </c>
       <c r="D4" t="n">
-        <v>310629.0408162409</v>
+        <v>310629.0408162416</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744295</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744293</v>
       </c>
-      <c r="H4" t="n">
-        <v>8727.256391744297</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>8727.256391744309</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744322</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8727.256391744289</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744295</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744322</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744295</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744299</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>35312.90995413795</v>
       </c>
       <c r="D5" t="n">
-        <v>49123.28007136613</v>
+        <v>49123.280071366</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>197514.8198629158</v>
+        <v>197514.819862916</v>
       </c>
       <c r="C6" t="n">
-        <v>236342.8796445753</v>
+        <v>236342.8796445757</v>
       </c>
       <c r="D6" t="n">
-        <v>-40305.17178624277</v>
+        <v>-40305.17178624083</v>
       </c>
       <c r="E6" t="n">
-        <v>-524075.6001958896</v>
+        <v>-524110.338121328</v>
       </c>
       <c r="F6" t="n">
-        <v>556046.1585286035</v>
+        <v>556011.4206031682</v>
       </c>
       <c r="G6" t="n">
-        <v>556046.1585286037</v>
+        <v>556011.4206031682</v>
       </c>
       <c r="H6" t="n">
-        <v>556046.1585286034</v>
+        <v>556011.420603168</v>
       </c>
       <c r="I6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.4206031681</v>
       </c>
       <c r="J6" t="n">
-        <v>552079.1256681214</v>
+        <v>552044.3877426859</v>
       </c>
       <c r="K6" t="n">
-        <v>556046.1585286037</v>
+        <v>556011.4206031676</v>
       </c>
       <c r="L6" t="n">
-        <v>533558.1428695093</v>
+        <v>533523.4049440746</v>
       </c>
       <c r="M6" t="n">
-        <v>289723.6227110287</v>
+        <v>289688.8847855927</v>
       </c>
       <c r="N6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.420603168</v>
       </c>
       <c r="O6" t="n">
-        <v>556046.1585286034</v>
+        <v>556011.420603168</v>
       </c>
       <c r="P6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.4206031682</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>420.7129414875528</v>
+        <v>420.7129414875504</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,19 +26793,19 @@
         <v>15.16194852731947</v>
       </c>
       <c r="D4" t="n">
-        <v>104.0154267588402</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26817,16 +26817,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>385.6916807684274</v>
+        <v>385.691680768425</v>
       </c>
       <c r="E3" t="n">
-        <v>947.2625588541209</v>
+        <v>947.2625588541239</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.85347823152075</v>
+        <v>88.85347823151942</v>
       </c>
       <c r="E4" t="n">
-        <v>1068.692861340808</v>
+        <v>1068.69286134081</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.16194852731951</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823152098</v>
+        <v>88.85347823151942</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.692861340808</v>
+        <v>1068.69286134081</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823152075</v>
+        <v>88.85347823151942</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.692861340808</v>
+        <v>1068.69286134081</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>393.5214014788485</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>331.5543483731493</v>
       </c>
       <c r="I2" t="n">
-        <v>189.8861735903263</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>312.5903099428155</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.3712351225479</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>71.64112869536794</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>80.3188953730601</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>156.9293283584701</v>
+        <v>155.1220240940137</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>184.6991524448524</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>210.7744777148743</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>192.4183409406145</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.2590994956118</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27558,10 +27558,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>73.73230790717892</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.289490738636</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>159.2918501364599</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27591,19 +27591,19 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>271.1536361150023</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>271.3610498092715</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>205.2300090892318</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>339.5210930933635</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.5214014788485</v>
+        <v>391.714097214392</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27670,7 +27670,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>237.9797455259483</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>151.3712351225479</v>
       </c>
       <c r="C6" t="n">
-        <v>159.3538547254527</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>142.4831319280815</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>129.9072638660644</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>80.3188953730601</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27749,13 +27749,13 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>212.5817819793308</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.6386386221058</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>236.5330346336001</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.4535244908929</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>132.8496205020987</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>236.9756947965085</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>273.168354073728</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>210.5477068617177</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>278.7184149046417</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>337.7710513021103</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>277.9149433134229</v>
       </c>
       <c r="F8" t="n">
-        <v>372.4981595311011</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>322.1536909117092</v>
+        <v>322.1536909117094</v>
       </c>
       <c r="I8" t="n">
-        <v>41.25629928714808</v>
+        <v>145.2717260459887</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>66.46395477053031</v>
+        <v>66.46395477053186</v>
       </c>
       <c r="T8" t="n">
         <v>215.6921474481042</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>265.7156739196288</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>62.51775689102845</v>
       </c>
       <c r="C9" t="n">
-        <v>81.09171109912931</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>43.42963880579853</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>53.62965369656072</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>41.05378563454366</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.438587440011</v>
@@ -27950,7 +27950,7 @@
         <v>103.4957282255947</v>
       </c>
       <c r="I9" t="n">
-        <v>58.24006124125196</v>
+        <v>58.24006124125214</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.97281151398465</v>
+        <v>43.97281151398496</v>
       </c>
       <c r="S9" t="n">
-        <v>154.8744983944059</v>
+        <v>50.85907163556709</v>
       </c>
       <c r="T9" t="n">
         <v>196.5172268719248</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8818472307643</v>
+        <v>121.8664204719254</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>160.0781952717343</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>110.8495813798263</v>
       </c>
       <c r="C10" t="n">
-        <v>63.23139433978761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>44.60004625937214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>42.41853588772895</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>53.80426013374483</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.2323166770878</v>
       </c>
       <c r="H10" t="n">
-        <v>155.4819715767047</v>
+        <v>155.4819715767048</v>
       </c>
       <c r="I10" t="n">
-        <v>132.6354190183923</v>
+        <v>132.6354190183924</v>
       </c>
       <c r="J10" t="n">
-        <v>39.72172854374331</v>
+        <v>39.72172854374362</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.63438908707392</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>143.1811584493427</v>
+        <v>143.1811584493429</v>
       </c>
       <c r="S10" t="n">
-        <v>210.7951765807159</v>
+        <v>106.7797498218771</v>
       </c>
       <c r="T10" t="n">
-        <v>224.7040306987872</v>
+        <v>120.6886039399484</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2776477556889</v>
+        <v>182.2622209968499</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-7.07318341828168e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.691308307487648</v>
+        <v>1.691308307487638</v>
       </c>
       <c r="H8" t="n">
-        <v>17.32111120405788</v>
+        <v>17.32111120405778</v>
       </c>
       <c r="I8" t="n">
-        <v>65.20416352441761</v>
+        <v>65.20416352441724</v>
       </c>
       <c r="J8" t="n">
-        <v>143.5476784626299</v>
+        <v>143.5476784626291</v>
       </c>
       <c r="K8" t="n">
-        <v>215.1407591185821</v>
+        <v>215.1407591185809</v>
       </c>
       <c r="L8" t="n">
-        <v>266.9011357338572</v>
+        <v>266.9011357338557</v>
       </c>
       <c r="M8" t="n">
-        <v>296.9789398471407</v>
+        <v>296.978939847139</v>
       </c>
       <c r="N8" t="n">
-        <v>301.78436957579</v>
+        <v>301.7843695757883</v>
       </c>
       <c r="O8" t="n">
-        <v>284.9664225932097</v>
+        <v>284.9664225932081</v>
       </c>
       <c r="P8" t="n">
-        <v>243.2122487521083</v>
+        <v>243.2122487521069</v>
       </c>
       <c r="Q8" t="n">
-        <v>182.6422699902069</v>
+        <v>182.6422699902058</v>
       </c>
       <c r="R8" t="n">
-        <v>106.2416454702211</v>
+        <v>106.2416454702205</v>
       </c>
       <c r="S8" t="n">
-        <v>38.54068805687482</v>
+        <v>38.5406880568746</v>
       </c>
       <c r="T8" t="n">
-        <v>7.403702116027183</v>
+        <v>7.403702116027141</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1353046645990118</v>
+        <v>0.1353046645990111</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9049297231996418</v>
+        <v>0.9049297231996367</v>
       </c>
       <c r="H9" t="n">
-        <v>8.739716010901805</v>
+        <v>8.739716010901756</v>
       </c>
       <c r="I9" t="n">
-        <v>31.15657161016311</v>
+        <v>31.15657161016293</v>
       </c>
       <c r="J9" t="n">
-        <v>85.49601389229599</v>
+        <v>85.49601389229551</v>
       </c>
       <c r="K9" t="n">
-        <v>146.126305346672</v>
+        <v>146.1263053466712</v>
       </c>
       <c r="L9" t="n">
-        <v>196.4848506447293</v>
+        <v>196.4848506447281</v>
       </c>
       <c r="M9" t="n">
-        <v>229.2885531107162</v>
+        <v>229.2885531107149</v>
       </c>
       <c r="N9" t="n">
-        <v>235.3571388421735</v>
+        <v>235.3571388421722</v>
       </c>
       <c r="O9" t="n">
-        <v>215.3058012912762</v>
+        <v>215.3058012912749</v>
       </c>
       <c r="P9" t="n">
-        <v>172.8018872309913</v>
+        <v>172.8018872309903</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.5134853684315</v>
+        <v>115.5134853684308</v>
       </c>
       <c r="R9" t="n">
-        <v>56.18502263865849</v>
+        <v>56.18502263865817</v>
       </c>
       <c r="S9" t="n">
-        <v>16.80867270943193</v>
+        <v>16.80867270943184</v>
       </c>
       <c r="T9" t="n">
-        <v>3.647501822896801</v>
+        <v>3.64750182289678</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05953485021050278</v>
+        <v>0.05953485021050244</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7586626813709967</v>
+        <v>0.7586626813709924</v>
       </c>
       <c r="H10" t="n">
-        <v>6.745200930734867</v>
+        <v>6.745200930734828</v>
       </c>
       <c r="I10" t="n">
-        <v>22.81505590886598</v>
+        <v>22.81505590886585</v>
       </c>
       <c r="J10" t="n">
-        <v>53.63745157292946</v>
+        <v>53.63745157292916</v>
       </c>
       <c r="K10" t="n">
-        <v>88.14280970837578</v>
+        <v>88.14280970837528</v>
       </c>
       <c r="L10" t="n">
-        <v>112.7924499194662</v>
+        <v>112.7924499194656</v>
       </c>
       <c r="M10" t="n">
-        <v>118.9238237716372</v>
+        <v>118.9238237716365</v>
       </c>
       <c r="N10" t="n">
-        <v>116.0960810501636</v>
+        <v>116.096081050163</v>
       </c>
       <c r="O10" t="n">
-        <v>107.2335215450569</v>
+        <v>107.2335215450563</v>
       </c>
       <c r="P10" t="n">
-        <v>91.75680284508852</v>
+        <v>91.75680284508799</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.52765416462046</v>
+        <v>63.5276541646201</v>
       </c>
       <c r="R10" t="n">
-        <v>34.11223292782681</v>
+        <v>34.11223292782661</v>
       </c>
       <c r="S10" t="n">
-        <v>13.22142145625637</v>
+        <v>13.22142145625629</v>
       </c>
       <c r="T10" t="n">
-        <v>3.241558729494258</v>
+        <v>3.24155872949424</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04138160080205441</v>
+        <v>0.04138160080205418</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060495</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>476.064808938546</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357561996</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,7 +32792,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,7 +33032,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,22 +33263,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>434.178635838203</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>14.54934454641767</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15.16194852731947</v>
       </c>
       <c r="O2" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="P2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8.179020993895538</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14.54934454641767</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="N3" t="n">
         <v>15.16194852731947</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,13 +34860,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.16194852731947</v>
+        <v>9.632705730585775</v>
       </c>
       <c r="M4" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="N4" t="n">
-        <v>9.632705730585775</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="O4" t="n">
         <v>15.16194852731947</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M5" t="n">
-        <v>14.54934454641767</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="N5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="P5" t="n">
-        <v>15.16194852731947</v>
+        <v>9.336416952992851</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
         <v>15.16194852731947</v>
@@ -35021,16 +35021,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>14.54934454641767</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>15.16194852731947</v>
+        <v>8.179020993895531</v>
       </c>
       <c r="Q6" t="n">
         <v>15.16194852731947</v>
@@ -35103,10 +35103,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="N7" t="n">
-        <v>9.632705730585775</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="O7" t="n">
-        <v>15.16194852731947</v>
+        <v>9.632705730585771</v>
       </c>
       <c r="P7" t="n">
         <v>4.916638815831901</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>104.0154267588402</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>70.85743923981418</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>31.13472076387001</v>
+        <v>101.9921600036866</v>
       </c>
       <c r="M8" t="n">
-        <v>66.63270661986795</v>
+        <v>66.6327066198663</v>
       </c>
       <c r="N8" t="n">
-        <v>72.37130597919906</v>
+        <v>72.37130597919736</v>
       </c>
       <c r="O8" t="n">
-        <v>54.86821117152297</v>
+        <v>54.86821117152132</v>
       </c>
       <c r="P8" t="n">
-        <v>11.9792529968388</v>
+        <v>11.9792529968374</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>19.91574014205872</v>
+        <v>8.284866372312166</v>
       </c>
       <c r="L9" t="n">
-        <v>57.9304708648551</v>
+        <v>100.8672145466096</v>
       </c>
       <c r="M9" t="n">
-        <v>87.15451918869792</v>
+        <v>87.15451918869661</v>
       </c>
       <c r="N9" t="n">
-        <v>104.0154267588402</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="O9" t="n">
-        <v>104.0154267588402</v>
+        <v>72.70955684683051</v>
       </c>
       <c r="P9" t="n">
-        <v>38.82747981666103</v>
+        <v>38.82747981666003</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>65.87331788249293</v>
+        <v>65.87331788249243</v>
       </c>
       <c r="L10" t="n">
-        <v>104.0154267588402</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="M10" t="n">
-        <v>48.91953001979782</v>
+        <v>48.91953001979621</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>104.0154267588402</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="P10" t="n">
-        <v>89.035362109982</v>
+        <v>89.03536210998148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>120.5443928316905</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>337.5104291586719</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728663</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>291.5823913937585</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
